--- a/모델링(테이블 정규화) 문제풀이.xlsx
+++ b/모델링(테이블 정규화) 문제풀이.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOON\Desktop\연습\DW_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D117B7F-501F-4424-A45C-D420CBBB7BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -772,7 +773,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1148,7 +1149,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="오른쪽 화살표 2"/>
+        <xdr:cNvPr id="3" name="오른쪽 화살표 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1452,7 +1459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1855,7 +1862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C5:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1979,10 +1986,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2259,11 +2266,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:K32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2280,242 +2287,241 @@
     <col min="14" max="14" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="N2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="O2" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C3" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="N3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="O3" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C4" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="I4" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="J4" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="K4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="N4" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C5" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="4">
         <v>3200130</v>
       </c>
-      <c r="D5" s="23">
+      <c r="E5" s="23">
         <v>3000</v>
       </c>
-      <c r="E5" s="23">
+      <c r="F5" s="23">
         <v>1700</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="N5" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <v>3200130</v>
       </c>
-      <c r="O5" s="23">
+      <c r="P5" s="23">
         <v>3000</v>
       </c>
-      <c r="P5" s="23">
+      <c r="Q5" s="23">
         <v>1700</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C6" s="24"/>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D6" s="24"/>
-      <c r="M6" s="21" t="s">
+      <c r="E6" s="24"/>
+      <c r="N6" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>3200131</v>
       </c>
-      <c r="O6" s="23">
+      <c r="P6" s="23">
         <v>5000</v>
       </c>
-      <c r="P6" s="23">
+      <c r="Q6" s="23">
         <v>2700</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="25" t="s">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C7" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="E7" s="25" t="s">
+      <c r="D7" s="26"/>
+      <c r="F7" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="27"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="C8" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>3200130</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="G8" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="H8" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="I8" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="J8" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="K8" s="28" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="28" t="s">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C9" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="23">
+      <c r="D9" s="23">
         <v>3000</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="G9" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="28" t="s">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C10" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="23">
+      <c r="D10" s="23">
         <v>1700</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="C11" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="36"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="14"/>
       <c r="C12" s="36"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="14"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -2529,358 +2535,410 @@
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C14" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="D14" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="N14" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="O14" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C15" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="D15" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="N15" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="O15" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="O15" s="27"/>
       <c r="P15" s="27"/>
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
+      <c r="S15" s="27"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C16" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="N16" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="Q16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="R16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R16" s="17" t="s">
+      <c r="S16" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="21" t="s">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C17" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="23"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="23"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="2"/>
-      <c r="M17" s="21" t="s">
+      <c r="K17" s="4"/>
+      <c r="L17" s="2"/>
+      <c r="N17" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="O17" s="23" t="s">
+      <c r="P17" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="P17" s="23">
+      <c r="Q17" s="23">
         <v>1</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="4">
         <v>1000</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <v>1000000</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M18" s="21" t="s">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="N18" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="25" t="s">
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C19" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="M19" s="21" t="s">
+      <c r="N19" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="C20" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M20" s="21" t="s">
+      <c r="N20" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="28" t="s">
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C21" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="2"/>
+      <c r="F21" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>3</v>
       </c>
-      <c r="I21" s="17">
+      <c r="J21" s="17">
         <v>4</v>
       </c>
-      <c r="J21" s="17">
+      <c r="K21" s="17">
         <v>5</v>
       </c>
-      <c r="K21" s="17">
+      <c r="L21" s="17">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="C22" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="5"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B23" s="34"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5"/>
+      <c r="F23" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="25" t="s">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+      <c r="C26" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B27" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="C27" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="J27" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="K27" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="L27" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="28" t="s">
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B28" s="10"/>
+      <c r="C28" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="4" t="s">
+      <c r="L28" s="4"/>
+      <c r="M28" s="11"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B29" s="12"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <v>1</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <v>2</v>
       </c>
-      <c r="H29" s="4">
+      <c r="I29" s="4">
         <v>3</v>
       </c>
-      <c r="I29" s="17">
+      <c r="J29" s="17">
         <v>4</v>
       </c>
-      <c r="J29" s="17">
+      <c r="K29" s="17">
         <v>5</v>
       </c>
-      <c r="K29" s="17">
+      <c r="L29" s="17">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M29" s="11"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B30" s="10"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="5"/>
+      <c r="F30" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E31" s="17" t="s">
+      <c r="L30" s="4"/>
+      <c r="M30" s="11"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B31" s="10"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="11"/>
+    </row>
+    <row r="32" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
